--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39F6128-0897-406F-A167-175C4699FAA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8162DD-5F47-49BC-A48B-9990705CD0A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
